--- a/MODULE 2 EXCEL ASSIGNMENT/VBA 1.xlsx
+++ b/MODULE 2 EXCEL ASSIGNMENT/VBA 1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\DA\assignments\MODULE 3 EXCEL ASSIGNMENT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\DA\assignments\MODULE 2 EXCEL ASSIGNMENT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61A79B5-B694-4300-8E80-62A7EE9FCA7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BB1B8A-BB20-451E-A80A-136345FCEAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8B047CCA-9E52-46EF-9396-43C579859142}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8B047CCA-9E52-46EF-9396-43C579859142}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -974,8 +974,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1120,8 +1120,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
